--- a/Upload-JD/JD_Updated_.Net Project Lead - Technical.xlsx
+++ b/Upload-JD/JD_Updated_.Net Project Lead - Technical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\satish.kumar\deeplearning\resumeranking\Upload-JD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5475CBCF-302A-440C-9ED2-B781DE2F30E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE844E3-1254-4A5A-B15E-F53A9A41863C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{5A5CFA35-AC6A-4099-A87E-D4FB9658EBAF}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Upload-JD/JD_Updated_.Net Project Lead - Technical.xlsx
+++ b/Upload-JD/JD_Updated_.Net Project Lead - Technical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\satish.kumar\deeplearning\resumeranking\Upload-JD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satish.kumar\Desktop\jd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE844E3-1254-4A5A-B15E-F53A9A41863C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63D6CF-3D2A-4D36-B8A8-8B7F32F69EC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{5A5CFA35-AC6A-4099-A87E-D4FB9658EBAF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Job Title</t>
   </si>
@@ -53,6 +53,15 @@
     <t>Primary Skill</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -66,6 +75,92 @@
   </si>
   <si>
     <t>ASP.Net--Master</t>
+  </si>
+  <si>
+    <t>Dot Net TL</t>
+  </si>
+  <si>
+    <t>MVC&amp;Silverlight&amp;Jquery &amp; ASP.Net--Expert,Dotnet Overview--Expert,Infragistic--Expert,Nunit--Expert,SQL Server 2005--Expert</t>
+  </si>
+  <si>
+    <t>MVC&amp;Silverlight&amp;Jquery &amp; ASP.Net--Expert</t>
+  </si>
+  <si>
+    <t>CMS  - Liferay--Master</t>
+  </si>
+  <si>
+    <t>Senior Java developer with hands on experience in Liferay, MySQL, JBoss ESB. Good in communication, Estimation skills and client handling. Having knowledge on designing skills.</t>
+  </si>
+  <si>
+    <t>Application / Web Servers - JBOSS--Master,Application / Web Servers - Apache-Tomcat--Master,Build management and Tools - Ant--Master,CMS  - Liferay--Master,Code review Plug-ins - PMD--Master,EAI technologies - Open ESB--Practitioner,Frameworks/ORM -  Spring--Master,IDE / Tools - Eclipse--Master,J2EE--Master,Java - Core Java--Master,Java Testing  Frameworks - JUnit--Practitioner,Logging  technologies - Log4j--Master,UI - Java Script--Master,Version Control - SVN--Master,Web Services - RESTFull (RESTLet)--Master,Web Technologies - JSP--Master</t>
+  </si>
+  <si>
+    <t>Sharepoint developer</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>• Experience in MS SharePoint Cloud Implementations
+• Extensive experience in Customization 
+• Data import scheduler knowledge
+• Good with JS, jQuery and MS SQL
+• Good communication
+• Good knowledge on SP portal design aspects and documentation
+Excellent customer communication</t>
+  </si>
+  <si>
+    <t>Share Point 2007 / 2010--Expert,MS SqlServer--Master</t>
+  </si>
+  <si>
+    <t>Share Point 2007 / 2010--Expert</t>
+  </si>
+  <si>
+    <t>1. .Net MVC with Entity framework.
+2. Unit Test cases automation scripting.
+3. Angular JS 2.0 +; hands on experience.
+4. JavaScript, jQuery, AJAX and CSS.
+5. MS SQL Server Knowledge.
+6. SSRS reports.
+7. Knowledge on deploying application in IIS.
+8. Agile process.
+9. TFS/GIT source repository.
+Should have very good knowledge in DotNet MVC and CFF. Good analytical skills, communication skills and team handling skills</t>
+  </si>
+  <si>
+    <t>Life Ray Developer</t>
+  </si>
+  <si>
+    <t>Quality Analyst</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>Hands on implementation experience in CMMI Level 5 - Dev &amp; ISO 9001
+Hands on experience in statistical tool
+Facilitate assigned projects teams &amp; department to implement processes.
+Provide project &amp; department progress updates on regular basis to Quality team lead.
+Conduct independent process implementation reviews &amp; timely escalation of process-gaps for assigned projects by using monthly Process Compliance dashboard sheet Participate in internal &amp; external audit as SQA for assigned projects.
+Facilitate closure of internal &amp; external audit observations for assigned project &amp; departments.
+Facilitate project team &amp; department during RCA meeting.(Defects, Metrics, NC's)</t>
+  </si>
+  <si>
+    <t>ISO, CMMI, ISMS</t>
+  </si>
+  <si>
+    <t>1. .Net MVC with Entity framework.
+2. Unit Test cases automation scripting.
+3. Angular JS 2.0 +; hands on experience.
+4. JavaScript, jQuery, AJAX and CSS.
+5. MS SQL Server Knowledge.
+6. SSRS reports.
+7. Knowledge on deploying application in IIS.
+8. Agile process.
+9. TFS/GIT source repository.</t>
+  </si>
+  <si>
+    <t>.Net Angular</t>
   </si>
   <si>
     <t>1. .Net MVC with Entity framework.
@@ -141,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -150,6 +245,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC217BC-58F8-4AD0-A082-8094218BE260}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,25 +608,140 @@
     </row>
     <row r="2" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
